--- a/data/assets/Попов Михаил Сергеевич.xlsx
+++ b/data/assets/Попов Михаил Сергеевич.xlsx
@@ -2292,7 +2292,7 @@
       </c>
       <c r="C65" s="13" t="inlineStr">
         <is>
-          <t>Ф-10-1, Ф-10-2</t>
+          <t>Ф-10-2, Ф-10-3</t>
         </is>
       </c>
       <c r="D65" s="13" t="inlineStr"/>
